--- a/InterfaceLab2/result.xlsx
+++ b/InterfaceLab2/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\hci\InterfaceLab1\InterfaceLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E67791C7-39EA-4A8F-A4A3-7321DFAB843C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{311552C0-0444-43DC-9462-4105363E0916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3552" yWindow="36" windowWidth="19488" windowHeight="11784"/>
   </bookViews>
@@ -651,9 +651,45 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5251807989445841E-2"/>
+                  <c:y val="-6.3750971434718653E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:val>
             <c:numRef>
@@ -1743,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/InterfaceLab2/result.xlsx
+++ b/InterfaceLab2/result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\hci\InterfaceLab1\InterfaceLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{311552C0-0444-43DC-9462-4105363E0916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2155AB-B0F5-4E80-AA97-7D245FE12BE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="36" windowWidth="19488" windowHeight="11784"/>
+    <workbookView xWindow="2496" yWindow="144" windowWidth="19488" windowHeight="11784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Часть 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Часть 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Среднее время</t>
   </si>
@@ -30,11 +42,50 @@
   <si>
     <t>Попытки</t>
   </si>
+  <si>
+    <t>Font size: 10</t>
+  </si>
+  <si>
+    <t>Font size: 11</t>
+  </si>
+  <si>
+    <t>Font size: 12</t>
+  </si>
+  <si>
+    <t>Font size: 14</t>
+  </si>
+  <si>
+    <t>Font size: 16</t>
+  </si>
+  <si>
+    <t>Число элементов</t>
+  </si>
+  <si>
+    <t>Color: #FFDC143C (желтый)</t>
+  </si>
+  <si>
+    <t>Color: #FF0000FF (красный)</t>
+  </si>
+  <si>
+    <t>Color: #FF008000 (белый)</t>
+  </si>
+  <si>
+    <t>Color: #FFFFFF00 (чёрный)</t>
+  </si>
+  <si>
+    <t>Color: #FF0000FF (синий)</t>
+  </si>
+  <si>
+    <t>Color: #FF008000 (зелёный)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,7 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,6 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -693,7 +745,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$H$3:$H$8</c:f>
+              <c:f>'Часть 1'!$H$3:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1776,11 +1828,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1977,4 +2029,463 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1E10AB-FFC3-481A-B985-6CE273AB2EE0}">
+  <dimension ref="B2:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="9" width="9.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1004.9030749999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1330.670875</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1238.127675</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1198.59285</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1745.366125</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1229.279025</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1722.786975</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1074.6556250000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1027.6106749999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1332.3396</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1338.6590249999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1272.5835999999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1479.7436499999999</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1517.6735000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1179.16085</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1171.422425</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1175.671225</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1422.7576750000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1569.959175</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1202.4202</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1485.357</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1032.783725</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1105.4110000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1388.0989500000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1362.5546750000001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1405.97495</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1758.4484749999999</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2350.2033750000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>951.31907999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1010.75762</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1074.28736</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1276.26386</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1360.31386</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1573.9979000000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1730.8684599999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>972.47587999999996</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1072.9439400000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1178.1591000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1178.40966</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1465.9900399999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1472.21336</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1787.4123999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1065.4156499999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1016.1310999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1884.7313750000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1465.0410750000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1691.3992249999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1281.9749750000001</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2054.7696999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1513.7846750000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1255.6107500000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1198.5342499999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1638.59935</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1511.56295</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1500.3694499999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2063.0205249999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1257.4621</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1309.865675</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1184.672225</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1243.9981499999999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1571.94885</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1954.717725</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1276.023375</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1104.8565249999999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1060.865675</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1149.8115499999999</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1253.4030749999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1238.9387999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1136.793375</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1817.0894249999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1532.75855</v>
+      </c>
+      <c r="D14" s="3">
+        <v>955.72614999999996</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1449.186175</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1628.057425</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1988.47135</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1249.4407249999999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1814.122775</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InterfaceLab2/result.xlsx
+++ b/InterfaceLab2/result.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\hci\InterfaceLab1\InterfaceLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2155AB-B0F5-4E80-AA97-7D245FE12BE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E472F36-93CA-4EEF-B325-814AA2524B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="144" windowWidth="19488" windowHeight="11784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Часть 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Часть 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Часть 2 (неправильная)" sheetId="2" r:id="rId2"/>
+    <sheet name="Часть 2 (правильная)" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -24,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Среднее время</t>
   </si>
@@ -78,13 +81,31 @@
   <si>
     <t>Color: #FF008000 (зелёный)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Color: Белый</t>
+  </si>
+  <si>
+    <t>Color: Жёлтый</t>
+  </si>
+  <si>
+    <t>Color: Зелёный</t>
+  </si>
+  <si>
+    <t>Color: Синий</t>
+  </si>
+  <si>
+    <t>Color: Красный</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -421,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -536,6 +557,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -581,15 +682,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -738,7 +847,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -830,7 +939,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="133977008"/>
@@ -889,7 +998,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="133980752"/>
@@ -937,7 +1046,3348 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Чёрный</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1004.9030749999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1330.670875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1238.127675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1198.59285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1745.366125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1229.279025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1722.786975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EEF-4CEF-89BB-72FE171E18C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Белый</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1074.6556250000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1027.6106749999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1332.3396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1338.6590249999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1272.5835999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1479.7436499999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1517.6735000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6EEF-4CEF-89BB-72FE171E18C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Красный</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1179.16085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1171.422425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1175.671225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1422.7576750000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1569.959175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1202.4202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1485.357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6EEF-4CEF-89BB-72FE171E18C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Жёлтый</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1032.783725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1105.4110000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1388.0989500000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1362.5546750000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1405.97495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1758.4484749999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2350.2033750000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6EEF-4CEF-89BB-72FE171E18C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Зелёный</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>951.31907999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1010.75762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1074.28736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1276.26386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1360.31386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1573.9979000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1730.8684599999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6EEF-4CEF-89BB-72FE171E18C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Синий</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>972.47587999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1072.9439400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1178.1591000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1178.40966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1465.9900399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1472.21336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1787.4123999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6EEF-4CEF-89BB-72FE171E18C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1752494656"/>
+        <c:axId val="1640140992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1752494656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1640140992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1640140992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1900"/>
+          <c:min val="600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1752494656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Шрифт 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>850.41565000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1016.1310999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1384.7313750000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1465.0410750000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1691.3992249999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1881.9749750000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2054.7696999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D6E7-4C77-A931-2AFDD7CD9240}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Шрифт 11</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1513.7846750000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1255.6107500000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1198.5342499999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1638.59935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1511.56295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500.3694499999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2063.0205249999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D6E7-4C77-A931-2AFDD7CD9240}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Шрифт 12</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1257.4621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1309.865675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1184.672225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1243.9981499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1571.94885</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1954.717725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1776.023375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D6E7-4C77-A931-2AFDD7CD9240}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Шрифт 14</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1104.8565249999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1060.865675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1149.8115499999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1253.4030749999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1238.9387999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1136.793375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1817.0894249999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D6E7-4C77-A931-2AFDD7CD9240}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Шрифт 16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Часть 2 (неправильная)'!$C$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>732.75855000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>955.72614999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1449.186175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1628.057425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1808.47135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1749.4407249999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1814.122775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D6E7-4C77-A931-2AFDD7CD9240}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1831080992"/>
+        <c:axId val="1835427952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1831080992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1835427952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1835427952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2100"/>
+          <c:min val="600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1831080992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.212905299559066E-2"/>
+          <c:y val="0.83083334262874375"/>
+          <c:w val="0.8422644200534567"/>
+          <c:h val="0.14246279056650865"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]res2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Color: Белый</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1076.5589666666699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1204.76303333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1113.0449000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1263.61006666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1157.9700333333301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1352.93186666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1312.57206666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5F7-4728-9B86-DE64AF99C265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]res2!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Color: Жёлтый</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1209.2508333333301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1202.8173666666701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1210.4244333333299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1201.2405000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1160.38873333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1271.95436666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1353.09253333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D5F7-4728-9B86-DE64AF99C265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]res2!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Color: Зелёный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1124.4093666666699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1148.29293333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1202.7167999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1214.8154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1567.03056666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1652.2620999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1546.54653333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D5F7-4728-9B86-DE64AF99C265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]res2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Color: Синий</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1307.00193333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1040.4756333333301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1076.34443333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1087.9273333333299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1201.8704666666699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1554.41143333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1477.8967666666699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D5F7-4728-9B86-DE64AF99C265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]res2!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Color: Красный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1189.6233999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1199.0537666666701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1350.79326666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1218.4526333333299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1113.4156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1481.33486666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1612.1549333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D5F7-4728-9B86-DE64AF99C265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="66281503"/>
+        <c:axId val="16754495"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66281503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16754495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="16754495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66281503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71453282511660565"/>
+          <c:y val="0.45749031931546674"/>
+          <c:w val="0.249373756624371"/>
+          <c:h val="0.49608064686981401"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]res2!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Font size: 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1244.45886666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1283.5827666666701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1739.80293333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1240.32226666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1361.8422333333299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1520.10646666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D03C-4BD3-80D6-571CEA399A5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]res2!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Font size: 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1280.85183333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1685.60903333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1864.1412666666699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1627.8853999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1585.1919666666699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1746.0039999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1942.92076666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D03C-4BD3-80D6-571CEA399A5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]res2!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Font size: 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1190.9126333333299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1557.69613333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1542.3669666666699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1660.31823333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1789.6976999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1811.34856666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2344.4735666666702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D03C-4BD3-80D6-571CEA399A5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]res2!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Font size: 14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1747.38266666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1953.7734333333301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1769.1909000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1692.2620666666701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1770.0002666666701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1847.2373333333301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2121.2195333333302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D03C-4BD3-80D6-571CEA399A5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]res2!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Font size: 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]res2!$C$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1662.5172333333301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1518.1885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624.7742000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1980.26753333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1609.7392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1857.5727999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045.9884999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D03C-4BD3-80D6-571CEA399A5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="262179935"/>
+        <c:axId val="221408607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="262179935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221408607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="221408607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2500"/>
+          <c:min val="900"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262179935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73408464566929121"/>
+          <c:y val="0.44390845375097343"/>
+          <c:w val="0.24508202099737533"/>
+          <c:h val="0.51511349542845608"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -988,6 +4438,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1472,6 +5082,2070 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1530,6 +7204,461 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586076</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>116287</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14909</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1183F52-7BFF-4B5D-BB14-CFF162CD432D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>597024</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>164808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>128464</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF73EE04-9294-4D0F-95A3-2FAE91507004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C89480-3434-438D-A4D3-A7CCC05A155B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0869EEA1-8160-41C0-A480-9F3C081008AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="res2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>2</v>
+          </cell>
+          <cell r="D3">
+            <v>3</v>
+          </cell>
+          <cell r="E3">
+            <v>4</v>
+          </cell>
+          <cell r="F3">
+            <v>5</v>
+          </cell>
+          <cell r="G3">
+            <v>6</v>
+          </cell>
+          <cell r="H3">
+            <v>7</v>
+          </cell>
+          <cell r="I3">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Color: Белый</v>
+          </cell>
+          <cell r="C4">
+            <v>1076.5589666666699</v>
+          </cell>
+          <cell r="D4">
+            <v>1204.76303333333</v>
+          </cell>
+          <cell r="E4">
+            <v>1113.0449000000001</v>
+          </cell>
+          <cell r="F4">
+            <v>1263.61006666667</v>
+          </cell>
+          <cell r="G4">
+            <v>1157.9700333333301</v>
+          </cell>
+          <cell r="H4">
+            <v>1352.93186666667</v>
+          </cell>
+          <cell r="I4">
+            <v>1312.57206666667</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Color: Жёлтый</v>
+          </cell>
+          <cell r="C5">
+            <v>1209.2508333333301</v>
+          </cell>
+          <cell r="D5">
+            <v>1202.8173666666701</v>
+          </cell>
+          <cell r="E5">
+            <v>1210.4244333333299</v>
+          </cell>
+          <cell r="F5">
+            <v>1201.2405000000001</v>
+          </cell>
+          <cell r="G5">
+            <v>1160.38873333333</v>
+          </cell>
+          <cell r="H5">
+            <v>1271.95436666667</v>
+          </cell>
+          <cell r="I5">
+            <v>1353.09253333333</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Color: Зелёный</v>
+          </cell>
+          <cell r="C6">
+            <v>1124.4093666666699</v>
+          </cell>
+          <cell r="D6">
+            <v>1148.29293333333</v>
+          </cell>
+          <cell r="E6">
+            <v>1202.7167999999999</v>
+          </cell>
+          <cell r="F6">
+            <v>1214.8154</v>
+          </cell>
+          <cell r="G6">
+            <v>1567.03056666667</v>
+          </cell>
+          <cell r="H6">
+            <v>1652.2620999999999</v>
+          </cell>
+          <cell r="I6">
+            <v>1546.54653333333</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Color: Синий</v>
+          </cell>
+          <cell r="C7">
+            <v>1307.00193333333</v>
+          </cell>
+          <cell r="D7">
+            <v>1040.4756333333301</v>
+          </cell>
+          <cell r="E7">
+            <v>1076.34443333333</v>
+          </cell>
+          <cell r="F7">
+            <v>1087.9273333333299</v>
+          </cell>
+          <cell r="G7">
+            <v>1201.8704666666699</v>
+          </cell>
+          <cell r="H7">
+            <v>1554.41143333333</v>
+          </cell>
+          <cell r="I7">
+            <v>1477.8967666666699</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Color: Красный</v>
+          </cell>
+          <cell r="C8">
+            <v>1189.6233999999999</v>
+          </cell>
+          <cell r="D8">
+            <v>1199.0537666666701</v>
+          </cell>
+          <cell r="E8">
+            <v>1350.79326666667</v>
+          </cell>
+          <cell r="F8">
+            <v>1218.4526333333299</v>
+          </cell>
+          <cell r="G8">
+            <v>1113.4156</v>
+          </cell>
+          <cell r="H8">
+            <v>1481.33486666667</v>
+          </cell>
+          <cell r="I8">
+            <v>1612.1549333333301</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Font size: 10</v>
+          </cell>
+          <cell r="C9">
+            <v>1244.45886666667</v>
+          </cell>
+          <cell r="D9">
+            <v>1283.5827666666701</v>
+          </cell>
+          <cell r="E9">
+            <v>1739.80293333333</v>
+          </cell>
+          <cell r="F9">
+            <v>1240.32226666667</v>
+          </cell>
+          <cell r="G9">
+            <v>1361.8422333333299</v>
+          </cell>
+          <cell r="H9">
+            <v>1520.10646666667</v>
+          </cell>
+          <cell r="I9">
+            <v>1500.85</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Font size: 11</v>
+          </cell>
+          <cell r="C10">
+            <v>1280.85183333333</v>
+          </cell>
+          <cell r="D10">
+            <v>1685.60903333333</v>
+          </cell>
+          <cell r="E10">
+            <v>1864.1412666666699</v>
+          </cell>
+          <cell r="F10">
+            <v>1627.8853999999999</v>
+          </cell>
+          <cell r="G10">
+            <v>1585.1919666666699</v>
+          </cell>
+          <cell r="H10">
+            <v>1746.0039999999999</v>
+          </cell>
+          <cell r="I10">
+            <v>1942.92076666667</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Font size: 12</v>
+          </cell>
+          <cell r="C11">
+            <v>1190.9126333333299</v>
+          </cell>
+          <cell r="D11">
+            <v>1557.69613333333</v>
+          </cell>
+          <cell r="E11">
+            <v>1542.3669666666699</v>
+          </cell>
+          <cell r="F11">
+            <v>1660.31823333333</v>
+          </cell>
+          <cell r="G11">
+            <v>1789.6976999999999</v>
+          </cell>
+          <cell r="H11">
+            <v>1811.34856666667</v>
+          </cell>
+          <cell r="I11">
+            <v>2344.4735666666702</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Font size: 14</v>
+          </cell>
+          <cell r="C12">
+            <v>1747.38266666667</v>
+          </cell>
+          <cell r="D12">
+            <v>1953.7734333333301</v>
+          </cell>
+          <cell r="E12">
+            <v>1769.1909000000001</v>
+          </cell>
+          <cell r="F12">
+            <v>1692.2620666666701</v>
+          </cell>
+          <cell r="G12">
+            <v>1770.0002666666701</v>
+          </cell>
+          <cell r="H12">
+            <v>1847.2373333333301</v>
+          </cell>
+          <cell r="I12">
+            <v>2121.2195333333302</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Font size: 16</v>
+          </cell>
+          <cell r="C13">
+            <v>1662.5172333333301</v>
+          </cell>
+          <cell r="D13">
+            <v>1518.1885</v>
+          </cell>
+          <cell r="E13">
+            <v>1624.7742000000001</v>
+          </cell>
+          <cell r="F13">
+            <v>1980.26753333333</v>
+          </cell>
+          <cell r="G13">
+            <v>1609.7392</v>
+          </cell>
+          <cell r="H13">
+            <v>1857.5727999999999</v>
+          </cell>
+          <cell r="I13">
+            <v>2045.9884999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1842,23 +7971,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -1874,7 +8003,7 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
@@ -2035,8 +8164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1E10AB-FFC3-481A-B985-6CE273AB2EE0}">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2046,15 +8175,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C3">
@@ -2083,25 +8212,25 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1004.9030749999999</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1330.670875</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1238.127675</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>1198.59285</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>1745.366125</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>1229.279025</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>1722.786975</v>
       </c>
     </row>
@@ -2109,25 +8238,25 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1074.6556250000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1027.6106749999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1332.3396</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>1338.6590249999999</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>1272.5835999999999</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>1479.7436499999999</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>1517.6735000000001</v>
       </c>
     </row>
@@ -2135,25 +8264,25 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1179.16085</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1171.422425</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1175.671225</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>1422.7576750000001</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>1569.959175</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>1202.4202</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>1485.357</v>
       </c>
     </row>
@@ -2161,25 +8290,25 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1032.783725</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1105.4110000000001</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1388.0989500000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>1362.5546750000001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>1405.97495</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>1758.4484749999999</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>2350.2033750000001</v>
       </c>
     </row>
@@ -2187,25 +8316,25 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>951.31907999999999</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1010.75762</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1074.28736</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1276.26386</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>1360.31386</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>1573.9979000000001</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>1730.8684599999999</v>
       </c>
     </row>
@@ -2213,25 +8342,25 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>972.47587999999996</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1072.9439400000001</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1178.1591000000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>1178.40966</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>1465.9900399999999</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>1472.21336</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>1787.4123999999999</v>
       </c>
     </row>
@@ -2239,25 +8368,25 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
-        <v>1065.4156499999999</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="2">
+        <v>850.41565000000003</v>
+      </c>
+      <c r="D10" s="2">
         <v>1016.1310999999999</v>
       </c>
-      <c r="E10" s="3">
-        <v>1884.7313750000001</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="2">
+        <v>1384.7313750000001</v>
+      </c>
+      <c r="F10" s="2">
         <v>1465.0410750000001</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>1691.3992249999999</v>
       </c>
-      <c r="H10" s="3">
-        <v>1281.9749750000001</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="2">
+        <v>1881.9749750000001</v>
+      </c>
+      <c r="I10" s="2">
         <v>2054.7696999999998</v>
       </c>
     </row>
@@ -2265,25 +8394,25 @@
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1513.7846750000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>1255.6107500000001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>1198.5342499999999</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>1638.59935</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>1511.56295</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>1500.3694499999999</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>2063.0205249999999</v>
       </c>
     </row>
@@ -2291,51 +8420,51 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1257.4621</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>1309.865675</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>1184.672225</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>1243.9981499999999</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>1571.94885</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>1954.717725</v>
       </c>
-      <c r="I12" s="3">
-        <v>1276.023375</v>
+      <c r="I12" s="2">
+        <v>1776.023375</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1104.8565249999999</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>1060.865675</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>1149.8115499999999</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>1253.4030749999999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>1238.9387999999999</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>1136.793375</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>1817.0894249999999</v>
       </c>
     </row>
@@ -2343,149 +8472,465 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3">
-        <v>1532.75855</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="2">
+        <v>732.75855000000001</v>
+      </c>
+      <c r="D14" s="2">
         <v>955.72614999999996</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>1449.186175</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>1628.057425</v>
       </c>
-      <c r="G14" s="3">
-        <v>1988.47135</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1249.4407249999999</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="G14" s="2">
+        <v>1808.47135</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1749.4407249999999</v>
+      </c>
+      <c r="I14" s="2">
         <v>1814.122775</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC517F31-392D-4436-9540-8E2F0A3A9C3D}">
+  <dimension ref="B1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1076.5589666666699</v>
+      </c>
+      <c r="D4">
+        <v>1204.76303333333</v>
+      </c>
+      <c r="E4">
+        <v>1113.0449000000001</v>
+      </c>
+      <c r="F4">
+        <v>1263.61006666667</v>
+      </c>
+      <c r="G4">
+        <v>1157.9700333333301</v>
+      </c>
+      <c r="H4">
+        <v>1352.93186666667</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1312.57206666667</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>1209.2508333333301</v>
+      </c>
+      <c r="D5">
+        <v>1202.8173666666701</v>
+      </c>
+      <c r="E5">
+        <v>1210.4244333333299</v>
+      </c>
+      <c r="F5">
+        <v>1201.2405000000001</v>
+      </c>
+      <c r="G5">
+        <v>1160.38873333333</v>
+      </c>
+      <c r="H5">
+        <v>1271.95436666667</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1353.09253333333</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>1124.4093666666699</v>
+      </c>
+      <c r="D6">
+        <v>1148.29293333333</v>
+      </c>
+      <c r="E6">
+        <v>1202.7167999999999</v>
+      </c>
+      <c r="F6">
+        <v>1214.8154</v>
+      </c>
+      <c r="G6">
+        <v>1567.03056666667</v>
+      </c>
+      <c r="H6">
+        <v>1652.2620999999999</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1546.54653333333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>1307.00193333333</v>
+      </c>
+      <c r="D7">
+        <v>1040.4756333333301</v>
+      </c>
+      <c r="E7">
+        <v>1076.34443333333</v>
+      </c>
+      <c r="F7">
+        <v>1087.9273333333299</v>
+      </c>
+      <c r="G7">
+        <v>1201.8704666666699</v>
+      </c>
+      <c r="H7">
+        <v>1554.41143333333</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1477.8967666666699</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>1189.6233999999999</v>
+      </c>
+      <c r="D8">
+        <v>1199.0537666666701</v>
+      </c>
+      <c r="E8">
+        <v>1350.79326666667</v>
+      </c>
+      <c r="F8">
+        <v>1218.4526333333299</v>
+      </c>
+      <c r="G8">
+        <v>1113.4156</v>
+      </c>
+      <c r="H8">
+        <v>1481.33486666667</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1612.1549333333301</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1244.45886666667</v>
+      </c>
+      <c r="D9">
+        <v>1283.5827666666701</v>
+      </c>
+      <c r="E9">
+        <v>1739.80293333333</v>
+      </c>
+      <c r="F9">
+        <v>1240.32226666667</v>
+      </c>
+      <c r="G9">
+        <v>1361.8422333333299</v>
+      </c>
+      <c r="H9">
+        <v>1520.10646666667</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1500.85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1280.85183333333</v>
+      </c>
+      <c r="D10">
+        <v>1685.60903333333</v>
+      </c>
+      <c r="E10">
+        <v>1864.1412666666699</v>
+      </c>
+      <c r="F10">
+        <v>1627.8853999999999</v>
+      </c>
+      <c r="G10">
+        <v>1585.1919666666699</v>
+      </c>
+      <c r="H10">
+        <v>1746.0039999999999</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1942.92076666667</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1190.9126333333299</v>
+      </c>
+      <c r="D11">
+        <v>1557.69613333333</v>
+      </c>
+      <c r="E11">
+        <v>1542.3669666666699</v>
+      </c>
+      <c r="F11">
+        <v>1660.31823333333</v>
+      </c>
+      <c r="G11">
+        <v>1789.6976999999999</v>
+      </c>
+      <c r="H11">
+        <v>1811.34856666667</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2344.4735666666702</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1747.38266666667</v>
+      </c>
+      <c r="D12">
+        <v>1953.7734333333301</v>
+      </c>
+      <c r="E12">
+        <v>1769.1909000000001</v>
+      </c>
+      <c r="F12">
+        <v>1692.2620666666701</v>
+      </c>
+      <c r="G12">
+        <v>1770.0002666666701</v>
+      </c>
+      <c r="H12">
+        <v>1847.2373333333301</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2121.2195333333302</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1662.5172333333301</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1518.1885</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1624.7742000000001</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1980.26753333333</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1609.7392</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1857.5727999999999</v>
+      </c>
+      <c r="I13" s="11">
+        <v>2045.9884999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>